--- a/temp.xlsx
+++ b/temp.xlsx
@@ -658,7 +658,11 @@
           <t>https://www.naukri.com/job-listings-int-customer-support-voice-pune-salary-35k-ctc-wfo-yerwada-kvc-consultants-ltd-pune-1-to-6-years-240723002701</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2126,7 +2130,11 @@
           <t>https://www.naukri.com/job-listings-1-year-bpo-exp-customer-care-hinjewqadi-pune-28k-in-hand-5-days-kvc-consultants-ltd-pune-1-to-6-years-240723002678</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2540,7 +2548,11 @@
           <t>https://www.naukri.com/job-listings-banking-operations-new-associate-corporate-banking-wholesale-banking-accenture-solutions-pvt-ltd-chennai-0-to-1-years-240723902676</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamil Nadu </t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3410,7 +3422,11 @@
           <t>https://www.naukri.com/job-listings-business-development-executive-and-human-resource-recruiter-daksh-manpower-and-mangement-services-ambala-1-to-3-years-290423006319</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3502,7 +3518,11 @@
           <t>https://www.naukri.com/job-listings-electrical-site-installation-engineer-daksh-manpower-and-mangement-services-ambala-3-to-6-years-050523008484</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3548,7 +3568,11 @@
           <t>https://www.naukri.com/job-listings-marketing-engineer-daksh-manpower-and-mangement-services-faridabad-4-to-8-years-180523005033</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4008,7 +4032,11 @@
           <t>https://www.naukri.com/job-listings-area-sales-manager-asm-tl-field-sales-b2b-sales-area-sales-ecom-selectica-international-solutions-llp-surat-4-to-8-years-240723002669</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4376,7 +4404,11 @@
           <t>https://www.naukri.com/job-listings-int-customer-care-blended-voice-magarpatta-pune-upto-6lpa-kvc-consultants-ltd-pune-1-to-6-years-240723002657</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5342,7 +5374,11 @@
           <t>https://www.naukri.com/job-listings-documentation-executive-2coms-new-delhi-0-to-5-years-240723902630</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>NCT of Delhi</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5848,7 +5884,11 @@
           <t>https://www.naukri.com/job-listings-senior-ecommerce-specialist-honeybeez-consultancy-ahmedabad-3-to-8-years-010523002033</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6170,7 +6210,11 @@
           <t>https://www.naukri.com/job-listings-advertising-specialist-for-amazon-marketplace-honeybeez-consultancy-ahmedabad-2-to-7-years-010523002018</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6400,7 +6444,11 @@
           <t>https://www.naukri.com/job-listings-sales-manager-chemical-industry-rajganga-biorefineries-pune-2-to-5-years-240723002607</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6446,7 +6494,11 @@
           <t>https://www.naukri.com/job-listings-ecommerce-assistant-for-amazon-marketplace-honeybeez-consultancy-ahmedabad-1-to-6-years-010523001993</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7182,7 +7234,11 @@
           <t>https://www.naukri.com/job-listings-mobile-developer-net-xamarin-radial-hr-solutions-pune-4-to-9-years-290722902655</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -9202,7 +9258,11 @@
           <t>https://www.naukri.com/job-listings-assistant-general-manager-sales-strategy-arsenius-skill-capital-mumbai-10-to-20-years-240723902587</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -9516,7 +9576,11 @@
           <t>https://www.naukri.com/job-listings-online-marketing-manager-qrata-mumbai-3-to-6-years-240723902578</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -9608,7 +9672,11 @@
           <t>https://www.naukri.com/job-listings-customer-service-voice-process-professional-hire-hunters-mumbai-1-to-2-years-240723902575</t>
         </is>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -9746,7 +9814,11 @@
           <t>https://www.naukri.com/job-listings-lead-business-development-bondburry-recruitment-pvt-ltd-pune-5-to-8-years-240723902577</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -9792,7 +9864,11 @@
           <t>https://www.naukri.com/job-listings-customer-service-voice-process-professional-hire-hunters-mumbai-1-to-2-years-240723902575</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -9884,7 +9960,11 @@
           <t>https://www.naukri.com/job-listings-dot-net-core-developer-lk-consultants-mumbai-5-to-7-years-240723902571</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -10064,7 +10144,11 @@
           <t>https://www.naukri.com/job-listings-pmo-insurance-serving-skill-mumbai-2-to-7-years-240723902569</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -10248,7 +10332,11 @@
           <t>https://www.naukri.com/job-listings-telesales-bpo-team-lead-insurance-serving-skill-mumbai-3-to-8-years-240723902563</t>
         </is>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -10294,7 +10382,11 @@
           <t>https://www.naukri.com/job-listings-head-business-development-pharma-analytics-solutions-arsenius-skill-capital-mumbai-10-to-20-years-240723902564</t>
         </is>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -10479,7 +10571,11 @@
           <t>https://www.naukri.com/job-listings-medical-officer-afih-falck-mumbai-2-to-5-years-200921001520</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -11491,7 +11587,11 @@
           <t>https://www.naukri.com/job-listings-fresher-electrical-engineer-surat-world-of-vacancy-surat-0-to-3-years-240723002543</t>
         </is>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -13641,7 +13741,11 @@
           <t>https://www.naukri.com/job-listings-for-site-engineer-surat-world-of-vacancy-surat-1-to-4-years-240723002487</t>
         </is>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -14469,7 +14573,11 @@
           <t>https://www.naukri.com/job-listings-finance-executive-mobismart-card-technology-chennai-0-to-2-years-030523008871</t>
         </is>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamil Nadu </t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -14607,7 +14715,11 @@
           <t>https://www.naukri.com/job-listings-electrical-engineer-blue-star-ciel-hr-chennai-4-to-9-years-240723002470</t>
         </is>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamil Nadu </t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -15113,7 +15225,11 @@
           <t>https://www.naukri.com/job-listings-actimize-application-developer-accenture-chennai-4-to-6-years-300123906818</t>
         </is>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamil Nadu </t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -15251,7 +15367,11 @@
           <t>https://www.naukri.com/job-listings-actimize-application-developer-accenture-chennai-4-to-6-years-300123906818</t>
         </is>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamil Nadu </t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -15665,7 +15785,11 @@
           <t>https://www.naukri.com/job-listings-sap-basis-administration-software-development-engineer-accenture-solutions-pvt-ltd-ahmedabad-4-to-6-years-170523911237</t>
         </is>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -15711,7 +15835,11 @@
           <t>https://www.naukri.com/job-listings-kinaxis-application-developer-accenture-chennai-6-to-8-years-130223902759</t>
         </is>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamil Nadu </t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -16033,7 +16161,11 @@
           <t>https://www.naukri.com/job-listings-spring-boot-application-developer-accenture-mumbai-4-to-6-years-300123906640</t>
         </is>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -16493,7 +16625,11 @@
           <t>https://www.naukri.com/job-listings-spring-application-framework-application-developer-accenture-solutions-pvt-ltd-mumbai-4-to-6-years-310522906139</t>
         </is>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -16677,7 +16813,11 @@
           <t>https://www.naukri.com/job-listings-sap-hana-db-administration-software-development-engineer-accenture-solutions-pvt-ltd-pune-4-to-6-years-291122911147</t>
         </is>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -17045,7 +17185,11 @@
           <t>https://www.naukri.com/job-listings-servicenow-it-service-management-application-designer-accenture-solutions-pvt-ltd-indore-4-to-6-years-300423901126</t>
         </is>
       </c>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -17643,7 +17787,11 @@
           <t>https://www.naukri.com/job-listings-reltio-application-developer-accenture-solutions-pvt-ltd-mumbai-4-to-6-years-190523907061</t>
         </is>
       </c>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -17689,7 +17837,11 @@
           <t>https://www.naukri.com/job-listings-program-project-management-specialist-digital-marketing-accenture-solutions-pvt-ltd-mumbai-7-to-11-years-010523901611</t>
         </is>
       </c>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -18057,7 +18209,11 @@
           <t>https://www.naukri.com/job-listings-industry-x-automotive-engineering-battery-design-11-accenture-pune-5-to-9-years-250123905414</t>
         </is>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -18241,7 +18397,11 @@
           <t>https://www.naukri.com/job-listings-bus-process-delivery-associate-query-management-accenture-solutions-pvt-ltd-mumbai-1-to-3-years-280423907827</t>
         </is>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -18287,7 +18447,11 @@
           <t>https://www.naukri.com/job-listings-transaction-processing-analyst-finance-processes-accenture-solutions-pvt-ltd-mumbai-3-to-5-years-200523906541</t>
         </is>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -18609,7 +18773,11 @@
           <t>https://www.naukri.com/job-listings-spring-application-framework-accenture-solutions-pvt-ltd-mumbai-4-to-6-years-230822909207</t>
         </is>
       </c>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -19161,7 +19329,11 @@
           <t>https://www.naukri.com/job-listings-sap-abap-crm-application-developer-accenture-chennai-4-to-6-years-200223905156</t>
         </is>
       </c>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamil Nadu </t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -19253,7 +19425,11 @@
           <t>https://www.naukri.com/job-listings-microservices-and-light-weight-architecture-application-developer-accenture-solutions-pvt-ltd-chennai-6-to-8-years-171122911274</t>
         </is>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamil Nadu </t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -19299,7 +19475,11 @@
           <t>https://www.naukri.com/job-listings-net-full-stack-development-application-developer-accenture-solutions-pvt-ltd-chennai-4-to-6-years-190523904775</t>
         </is>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamil Nadu </t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -19483,7 +19663,11 @@
           <t>https://www.naukri.com/job-listings-project-manager-accenture-solutions-pvt-ltd-mumbai-7-to-11-years-190123907218</t>
         </is>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -19529,7 +19713,11 @@
           <t>https://www.naukri.com/job-listings-sap-hcm-payroll-application-developer-accenture-solutions-pvt-ltd-mumbai-4-to-6-years-190523910243</t>
         </is>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -19575,7 +19763,11 @@
           <t>https://www.naukri.com/job-listings-italian-application-developer-accenture-pune-2-to-4-years-080223906304</t>
         </is>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -19621,7 +19813,11 @@
           <t>https://www.naukri.com/job-listings-net-full-stack-development-application-developer-accenture-solutions-pvt-ltd-mumbai-4-to-6-years-190523904774</t>
         </is>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -566,7 +566,11 @@
           <t>https://www.naukri.com/job-listings-devops-engineer-randstad-india-chennai-tamil-nadu-5-to-10-years-160623006740</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -612,7 +616,11 @@
           <t>https://www.naukri.com/job-listings-uk-accounting-taxation-befree-business-resourcing-llp-kochi-cochin-kerala-0-to-4-years-240723002704</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -660,7 +668,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
     </row>
@@ -750,7 +758,11 @@
           <t>https://www.naukri.com/job-listings-sales-executive-spectrum-talent-management-noida-uttar-pradesh-rohtak-haryana-jind-haryana-faridabad-haryana-sonipat-sonepat-haryana-hissar-hisar-haryana-bhiwani-haryana-2-to-5-years-210723006082</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -796,7 +808,11 @@
           <t>https://www.naukri.com/job-listings-personal-assistant-final-round-kolkata-2-to-5-years-300422004909</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -842,7 +858,11 @@
           <t>https://www.naukri.com/job-listings-chartered-accountant-acumen-hr-consulting-services-mumbai-maharashtra-2-to-4-years-240723002699</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -888,7 +908,11 @@
           <t>https://www.naukri.com/job-listings-appian-lead-exl-noida-hyderabad-secunderabad-pune-gurgaon-gurugram-bangalore-bengaluru-11-to-15-years-081122009974</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -934,7 +958,11 @@
           <t>https://www.naukri.com/job-listings-female-japanese-language-trainer-team-language-services-the-japanese-language-school-delhi-ncr-1-to-3-years-240723002698</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -980,7 +1008,11 @@
           <t>https://www.naukri.com/job-listings-sap-businessobjects-data-services-application-lead-accenture-solutions-pvt-ltd-kolkata-8-to-10-years-240723902697</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1026,7 +1058,11 @@
           <t>https://www.naukri.com/job-listings-brand-manager-ayatana-hospitalities-bangalore-bengaluru-3-to-6-years-240723002696</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1072,7 +1108,11 @@
           <t>https://www.naukri.com/job-listings-frontend-developer-ibm-india-pvt-limited-bangalore-bengaluru-2-to-5-years-240723902694</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1118,7 +1158,11 @@
           <t>https://www.naukri.com/job-listings-full-stack-developer-ibm-india-pvt-limited-bangalore-bengaluru-2-to-6-years-240723902695</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1164,7 +1208,11 @@
           <t>https://www.naukri.com/job-listings-officer-senior-officer-gst-noida-sec-1-rsm-india-noida-uttar-pradesh-1-to-3-years-230623008377</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1210,7 +1258,11 @@
           <t>https://www.naukri.com/job-listings-data-stage-developer-alignstart-technologies-chennai-tamil-nadu-5-to-7-years-240723002693</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1256,7 +1308,11 @@
           <t>https://www.naukri.com/job-listings-business-continuity-disaster-recovery-manager-capgemini-technology-services-india-limited-noida-mumbai-bangalore-bengaluru-6-to-9-years-240723902691</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1302,7 +1358,11 @@
           <t>https://www.naukri.com/job-listings-manual-tester-bilingual-japanese-capgemini-technology-services-india-limited-hyderabad-secunderabad-6-to-9-years-240723902690</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1348,7 +1408,11 @@
           <t>https://www.naukri.com/job-listings-safety-officer-mirash-industries-pvt-ltd-dahej-gujarat-2-to-3-years-240723002688</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1394,7 +1458,11 @@
           <t>https://www.naukri.com/job-listings-servicenow-leads-sentini-geosol-hyderabad-secunderabad-6-to-11-years-240723002687</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1440,7 +1508,11 @@
           <t>https://www.naukri.com/job-listings-servicenow-leads-sentini-geosol-hyderabad-secunderabad-6-to-11-years-240723002687</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1486,7 +1558,11 @@
           <t>https://www.naukri.com/job-listings-legal-compliance-officer-g-t-fruitech-new-delhi-delhi-2-to-3-years-240723002686</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1532,7 +1608,11 @@
           <t>https://www.naukri.com/job-listings-business-intelligence-data-science-analyst-strategic-talent-bangalore-bengaluru-karnataka-5-to-10-years-240723002685</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1578,7 +1658,11 @@
           <t>https://www.naukri.com/job-listings-sales-manager-andheri-w-sal-50k-incentives-jobspot-hr-services-mumbai-maharashtra-3-to-5-years-240723002684</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1624,7 +1708,11 @@
           <t>https://www.naukri.com/job-listings-financial-planning-and-analysis-lead-sutherland-chennai-tamil-nadu-bangalore-bengaluru-delhi-ncr-6-to-9-years-240723002683</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1670,7 +1758,11 @@
           <t>https://www.naukri.com/job-listings-sap-for-retail-store-operations-application-developer-accenture-solutions-pvt-ltd-bangalore-bengaluru-4-to-6-years-240723902682</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1716,7 +1808,11 @@
           <t>https://www.naukri.com/job-listings-hiring-senior-software-engineer-hyderabad-e2open-hyderabad-secunderabad-6-to-10-years-280922910440</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1762,7 +1858,11 @@
           <t>https://www.naukri.com/job-listings-staff-software-developer-e2open-hyderabad-secunderabad-6-to-10-years-280922910421</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1808,7 +1908,11 @@
           <t>https://www.naukri.com/job-listings-implementation-engineer-application-engineer-e2open-hyderabad-secunderabad-1-to-3-years-301122008181</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1854,7 +1958,11 @@
           <t>https://www.naukri.com/job-listings-sales-officer-oral-care-fmcg-daksh-manpower-and-mangement-services-saharanpur-ghaziabad-gorakhpur-roorkee-agra-moradabad-5-to-8-years-040822008351</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1900,7 +2008,11 @@
           <t>https://www.naukri.com/job-listings-office-executive-male-female-both-daksh-manpower-and-mangement-services-kashipur-rudrapur-moradabad-1-to-3-years-270722009211</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1946,7 +2058,11 @@
           <t>https://www.naukri.com/job-listings-business-development-engineer-female-daksh-manpower-and-mangement-services-jalandhar-ludhiana-chandigarh-3-to-8-years-080822002561</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1992,7 +2108,11 @@
           <t>https://www.naukri.com/job-listings-area-sales-manager-oral-care-fmcg-daksh-manpower-and-mangement-services-ghaziabad-dehradun-lucknow-6-to-11-years-040822007988</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2038,7 +2158,11 @@
           <t>https://www.naukri.com/job-listings-content-writer-the-hustler-collective-new-delhi-0-to-2-years-090421003722</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>RAJASTHAN</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2084,7 +2208,11 @@
           <t>https://www.naukri.com/job-listings-gynecologist-consultant-general-surgeon-neuro-surgeon-bamsgynecologist-daksh-manpower-and-mangement-services-haridwar-rudrapur-moradabad-1-to-5-years-151222009951</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2132,7 +2260,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2308,11 @@
           <t>https://www.naukri.com/job-listings-healthcare-recruiter-daksh-manpower-and-mangement-services-noida-haridwar-rudrapur-2-to-5-years-201222008703</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2226,7 +2358,11 @@
           <t>https://www.naukri.com/job-listings-hr-recruiter-daksh-manpower-and-mangement-services-noida-haridwar-rudrapur-1-to-3-years-080223009795</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2272,7 +2408,11 @@
           <t>https://www.naukri.com/job-listings-bulk-hiring-in-sales-process-outbound-bpo-hiring-campus-new-delhi-delhi-gurgaon-gurugram-haryana-delhi-ncr-0-to-5-years-240723002677</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2318,7 +2458,11 @@
           <t>https://www.naukri.com/job-listings-plant-head-daksh-manpower-and-mangement-services-faridabad-delhi-ncr-10-to-15-years-230922002150</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2364,7 +2508,11 @@
           <t>https://www.naukri.com/job-listings-bulk-hiring-in-sales-process-outbound-bpo-hiring-campus-new-delhi-delhi-gurgaon-gurugram-haryana-delhi-ncr-0-to-5-years-240723002677</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2410,7 +2558,11 @@
           <t>https://www.naukri.com/job-listings-plant-head-daksh-manpower-and-mangement-services-faridabad-delhi-ncr-10-to-15-years-230922002150</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2456,7 +2608,11 @@
           <t>https://www.naukri.com/job-listings-ecd-manager-aga-khan-education-services-rajkot-gujarat-10-to-15-years-120623001403</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2502,7 +2658,11 @@
           <t>https://www.naukri.com/job-listings-marketing-engineer-senior-marketing-engineer-daksh-manpower-and-mangement-services-noida-faridabad-3-to-8-years-121222002054</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2550,7 +2710,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamil Nadu </t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2758,11 @@
           <t>https://www.naukri.com/job-listings-sales-engineer-executive-domestic-daksh-manpower-and-mangement-services-noida-greater-noida-2-to-5-years-240223005713</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2644,7 +2808,11 @@
           <t>https://www.naukri.com/job-listings-electrician-iti-daksh-manpower-and-mangement-services-kashipur-faridabad-3-to-6-years-200323004100</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2690,7 +2858,11 @@
           <t>https://www.naukri.com/job-listings-data-annotatator-softage-information-technology-gurgaon-gurugram-haryana-1-to-2-years-240723002675</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2736,7 +2908,11 @@
           <t>https://www.naukri.com/job-listings-dot-net-developer-daksh-manpower-and-mangement-services-ambala-haryana-1-to-2-years-160623006946</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2782,7 +2958,11 @@
           <t>https://www.naukri.com/job-listings-php-developer-daksh-manpower-and-mangement-services-ambala-haryana-1-to-2-years-160623007122</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2870,7 +3050,11 @@
           <t>https://www.naukri.com/job-listings-grinding-manager-steel-industry-daksh-manpower-and-mangement-services-noida-10-to-15-years-261222002251</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2916,7 +3100,11 @@
           <t>https://www.naukri.com/job-listings-npd-engineer-tool-room-engineer-daksh-manpower-and-mangement-services-faridabad-1-to-4-years-180123006154</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2962,7 +3150,11 @@
           <t>https://www.naukri.com/job-listings-sanctions-screening-2coms-chennai-chennai-3-to-8-years-240723902673</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3008,7 +3200,11 @@
           <t>https://www.naukri.com/job-listings-erp-coordinator-daksh-manpower-and-mangement-services-faridabad-2-to-5-years-200223001116</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3054,7 +3250,11 @@
           <t>https://www.naukri.com/job-listings-documentation-executive-writer-developer-engineer-haat-incinerators-bangalore-bengaluru-3-to-4-years-240723002672</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3100,7 +3300,11 @@
           <t>https://www.naukri.com/job-listings-marketing-engineer-sheet-metal-steel-daksh-manpower-and-mangement-services-faridabad-3-to-6-years-250223004360</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3146,7 +3350,11 @@
           <t>https://www.naukri.com/job-listings-e-commerce-executive-daksh-manpower-and-mangement-services-noida-2-to-7-years-290323007963</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>MADHYA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3192,7 +3400,11 @@
           <t>https://www.naukri.com/job-listings-cost-and-estimation-engineer-sheet-metal-daksh-manpower-and-mangement-services-faridabad-2-to-4-years-070423006958</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3238,7 +3450,11 @@
           <t>https://www.naukri.com/job-listings-sales-manager-daksh-manpower-and-mangement-services-noida-3-to-5-years-150423003387</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3284,7 +3500,11 @@
           <t>https://www.naukri.com/job-listings-sales-manager-daksh-manpower-and-mangement-services-noida-3-to-5-years-150423003387</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3330,7 +3550,11 @@
           <t>https://www.naukri.com/job-listings-design-engineer-designer-sheet-metal-industry-daksh-manpower-and-mangement-services-faridabad-2-to-6-years-170423003041</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3376,7 +3600,11 @@
           <t>https://www.naukri.com/job-listings-business-development-executive-and-human-resource-recruiter-daksh-manpower-and-mangement-services-noida-2-to-6-years-190423005079</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>MADHYA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3424,7 +3652,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3700,11 @@
           <t>https://www.naukri.com/job-listings-store-executive-sheet-metal-industry-daksh-manpower-and-mangement-services-faridabad-2-to-6-years-040523006097</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3520,7 +3752,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3802,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3850,11 @@
           <t>https://www.naukri.com/job-listings-marketing-officer-infosource-consulting-kolkata-hyderabad-secunderabad-bangalore-bengaluru-1-to-6-years-271222010838</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3664,7 +3900,11 @@
           <t>https://www.naukri.com/job-listings-education-counsellor-infosource-consulting-kolkata-bangalore-bengaluru-1-to-6-years-271222010909</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3710,7 +3950,11 @@
           <t>https://www.naukri.com/job-listings-azure-data-engineer-infosource-consulting-bangalore-bengaluru-5-to-9-years-130223006150</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3756,7 +4000,11 @@
           <t>https://www.naukri.com/job-listings-java-fullstack-developer-infosource-consulting-bangalore-bengaluru-6-to-10-years-210223010598</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3802,7 +4050,11 @@
           <t>https://www.naukri.com/job-listings-devops-leads-sentini-geosol-hyderabad-secunderabad-telangana-6-to-11-years-240723002671</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3848,7 +4100,11 @@
           <t>https://www.naukri.com/job-listings-branch-manager-education-industry-area-sales-manager-admissions-kaamkaaj-india-guwahati-assam-tezpur-assam-lakhipur-assam-7-to-12-years-060723007865</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3894,7 +4150,11 @@
           <t>https://www.naukri.com/job-listings-sr-marketing-officer-business-development-education-sales-kaamkaaj-india-kohima-nagaland-itanagar-arunachal-pradesh-dimapur-nagaland-1-to-6-years-060723007876</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3940,7 +4200,11 @@
           <t>https://www.naukri.com/job-listings-project-leader-senior-software-developer-quadlabs-technologies-gurgaon-gurugram-haryana-7-to-12-years-240723002670</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3986,7 +4250,11 @@
           <t>https://www.naukri.com/job-listings-sales-manager-bajaj-allianz-life-ahmedabad-rajkot-gujarat-surat-gujarat-1-to-6-years-170723003282</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4034,7 +4302,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>GUJARAT</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4350,11 @@
           <t>https://www.naukri.com/job-listings-travel-sales-consultant-nvr-india-private-limited-ghaziabad-uttar-pradesh-2-to-5-years-240723002668</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>MADHYA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4128,7 +4400,11 @@
           <t>https://www.naukri.com/job-listings-rewards-business-partner-colt-technology-services-gurgaon-gurugram-7-to-12-years-240723002665</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4174,7 +4450,11 @@
           <t>https://www.naukri.com/job-listings-accounts-executive-female-k-and-k-minerals-kolhapur-maharashtra-3-to-4-years-240723002664</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4220,7 +4500,11 @@
           <t>https://www.naukri.com/job-listings-branch-manager-vernik-technology-hyderabad-secunderabad-telangana-4-to-9-years-240723002663</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4266,7 +4550,11 @@
           <t>https://www.naukri.com/job-listings-240723002662</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4312,7 +4600,11 @@
           <t>https://www.naukri.com/job-listings-restaurant-manager-jubilant-foodworks-jfl-ghaziabad-uttar-pradesh-bangalore-bengaluru-karnataka-5-to-9-years-240723002661</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4358,7 +4650,11 @@
           <t>https://www.naukri.com/job-listings-sr-process-associate-international-voice-process-kg-invicta-services-bangalore-bengaluru-1-to-2-years-240723002660</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4406,7 +4702,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4750,11 @@
           <t>https://www.naukri.com/job-listings-site-supervisor-trishul-developers-bangalore-bengaluru-0-to-5-years-240723002656</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4500,7 +4800,11 @@
           <t>https://www.naukri.com/job-listings-economics-and-statistic-teacher-aga-khan-education-services-sidhpur-3-to-5-years-120423008043</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>MADHYA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4546,7 +4850,11 @@
           <t>https://www.naukri.com/job-listings-pediatrician-rashtra-sant-anand-rishiji-hospital-ahmednagar-0-to-5-years-110720000822</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4592,7 +4900,11 @@
           <t>https://www.naukri.com/job-listings-digital-marketing-lead-candor-management-services-bangalore-bengaluru-4-to-7-years-240723002653</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4638,7 +4950,11 @@
           <t>https://www.naukri.com/job-listings-advisor-customer-experience-phonepe-bangalore-bengaluru-1-to-3-years-240723002651</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4684,7 +5000,11 @@
           <t>https://www.naukri.com/job-listings-grad-fresher-international-customer-care-voice-sal-20k-in-hand-pune-kvc-consultants-ltd-pune-maharashtra-0-to-2-years-240723002648</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4730,7 +5050,11 @@
           <t>https://www.naukri.com/job-listings-aws-architects-sentini-geosol-hyderabad-secunderabad-telangana-4-to-9-years-240723002645</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4776,7 +5100,11 @@
           <t>https://www.naukri.com/job-listings-printing-supervisor-shree-ambica-decoprints-pvt-ltd-kalol-gujarat-ahmedabad-gujarat-3-to-5-years-240723002646</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4822,7 +5150,11 @@
           <t>https://www.naukri.com/job-listings-senior-technical-lead-hcl-tech-bangalore-bengaluru-karnataka-7-to-10-years-240723002647</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4868,7 +5200,11 @@
           <t>https://www.naukri.com/job-listings-manager-sr-manager-leasing-credit-chennai-talent-leads-hr-solutions-chennai-tamil-nadu-8-to-10-years-240723002644</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4914,7 +5250,11 @@
           <t>https://www.naukri.com/job-listings-accounts-executive-companion-placements-kolkata-west-bengal-4-to-9-years-240723002643</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4960,7 +5300,11 @@
           <t>https://www.naukri.com/job-listings-instrumentation-designer-lt-technology-services-chennai-tamil-nadu-10-to-15-years-180723004682</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5006,7 +5350,11 @@
           <t>https://www.naukri.com/job-listings-order-to-cash-o2c-collections-management-trainee-gurgaon-us-shift-genpact-gurgaon-gurugram-haryana-3-to-6-years-240723000648</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5052,7 +5400,11 @@
           <t>https://www.naukri.com/job-listings-software-testing-engineer-estremo-technologies-private-limited-navi-mumbai-maharashtra-0-to-1-years-240723002641</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5098,7 +5450,11 @@
           <t>https://www.naukri.com/job-listings-neuro-surgeon-rashtra-sant-anand-rishiji-hospital-ahmednagar-0-to-5-years-261219003121</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5144,7 +5500,11 @@
           <t>https://www.naukri.com/job-listings-immediate-opening-for-ar-caller-us-voice-process-mani-destination-mohali-jaipur-bangalore-bengaluru-karnataka-1-to-5-years-240723002639</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5190,7 +5550,11 @@
           <t>https://www.naukri.com/job-listings-tech-support-executive-mohali-salary-27k-btech-bca-mca-fresher-kvc-consultants-ltd-mohali-chandigarh-0-to-5-years-240723002635</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5236,7 +5600,11 @@
           <t>https://www.naukri.com/job-listings-cook-convocare-hr-counselling-services-llp-thane-maharashtra-1-to-6-years-240723002633</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5282,7 +5650,11 @@
           <t>https://www.naukri.com/job-listings-posting-charge-posting-specialist-healthcell-services-mumbai-suburban-1-to-6-years-240723002634</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>WEST BENGAL</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5328,7 +5700,11 @@
           <t>https://www.naukri.com/job-listings-sap-sd-consultant-iitjobs-inc-pune-maharashtra-4-to-8-years-240723002632</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5376,7 +5752,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>NCT of Delhi</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5800,11 @@
           <t>https://www.naukri.com/job-listings-c-a-almal-industries-kolkata-5-to-10-years-240723002629</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>TAMIL NADU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5470,7 +5850,11 @@
           <t>https://www.naukri.com/job-listings-nabh-co-ordinator-rashtra-sant-anand-rishiji-hospital-ahmednagar-0-to-5-years-060221001369</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5516,7 +5900,11 @@
           <t>https://www.naukri.com/job-listings-executive-maintenance-a-maniar-healthcare-ahmedabad-0-to-3-years-240723002628</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5562,7 +5950,11 @@
           <t>https://www.naukri.com/job-listings-network-administrator-computer-generated-solutions-hyderabad-secunderabad-telangana-4-to-6-years-240723002627</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5608,7 +6000,11 @@
           <t>https://www.naukri.com/job-listings-firmware-engineer-noccarc-robotics-pvt-ltd-pune-maharashtra-1-to-3-years-240723002626</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5654,7 +6050,11 @@
           <t>https://www.naukri.com/job-listings-processor-backend-operations-wipro-noida-uttar-pradesh-gurgaon-gurugram-haryana-0-to-1-years-240723002624</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5700,7 +6100,11 @@
           <t>https://www.naukri.com/job-listings-mega-drive-for-airtel-xtreme-fiber-dhanbad-teamlease-services-limited-dhanbad-jharkhand-0-to-4-years-240723002625</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5746,7 +6150,11 @@
           <t>https://www.naukri.com/job-listings-data-engineering-lead-puresoftware-bangalore-bengaluru-7-to-12-years-240723002623</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5792,7 +6200,11 @@
           <t>https://www.naukri.com/job-listings-pro-public-relationship-officer-rashtra-sant-anand-rishiji-hospital-ahmednagar-0-to-5-years-010321005786</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5838,7 +6250,11 @@
           <t>https://www.naukri.com/job-listings-international-chat-process-mohali-salary-32k-in-hand-kvc-consultants-ltd-mohali-chandigarh-0-to-5-years-240723002620</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5886,7 +6302,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>GUJARAT</t>
         </is>
       </c>
     </row>
@@ -5934,7 +6350,11 @@
           <t>https://www.naukri.com/job-listings-big-data-lead-sentini-geosol-hyderabad-secunderabad-telangana-6-to-11-years-240723002616</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5980,7 +6400,11 @@
           <t>https://www.naukri.com/job-listings-search-engine-optimization-team-lead-contactpoint-360-bangalore-bengaluru-4-to-8-years-240723002615</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6026,7 +6450,11 @@
           <t>https://www.naukri.com/job-listings-gynecologist-consultant-ms-md-dnb-people-alliance-workforce-kota-udaipurwati-rajasthan-ajmer-jaipur-alwar-jodhpur-5-to-10-years-220723005603</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>KARNATAKA</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6072,7 +6500,11 @@
           <t>https://www.naukri.com/job-listings-gynecologist-consultant-ms-md-dnb-people-alliance-workforce-kota-udaipurwati-rajasthan-ajmer-jaipur-alwar-jodhpur-5-to-10-years-220723005603</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>KARNATAKA</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6118,7 +6550,11 @@
           <t>https://www.naukri.com/job-listings-technical-trainer-united-techno-info-systems-chennai-tamil-nadu-5-to-10-years-240723002614</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6164,7 +6600,11 @@
           <t>https://www.naukri.com/job-listings-avp-wholesale-lending-noida-night-shift-barclays-noida-uttar-pradesh-new-delhi-delhi-gurgaon-gurugram-haryana-delhi-ncr-10-to-20-years-240723002613</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6212,7 +6652,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>GUJARAT</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6700,11 @@
           <t>https://www.naukri.com/job-listings-non-voice-chat-email-customer-care-gurgaon-grad-freshers-16k-sal-kvc-consultants-ltd-gurgaon-gurugram-delhi-ncr-0-to-2-years-240723002610</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6306,7 +6750,11 @@
           <t>https://www.naukri.com/job-listings-chartered-accountant-acumen-hr-consulting-services-mumbai-mumbai-all-areas-1-to-3-years-040523011043</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>TAMIL NADU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6352,7 +6800,11 @@
           <t>https://www.naukri.com/job-listings-onco-surgeon-rashtra-sant-anand-rishiji-hospital-ahmednagar-1-to-6-years-060916000961</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6398,7 +6850,11 @@
           <t>https://www.naukri.com/job-listings-graphic-designer-openings-in-dubai-art-technologies-hyderabad-secunderabad-telangana-chennai-tamil-nadu-dubai-3-to-5-years-240723002608</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6446,7 +6902,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
     </row>
@@ -6496,7 +6952,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>GUJARAT</t>
         </is>
       </c>
     </row>
@@ -6544,7 +7000,11 @@
           <t>https://www.naukri.com/job-listings-ent-surgeon-rashtra-sant-anand-rishiji-hospital-ahmednagar-0-to-3-years-170220010203</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6590,7 +7050,11 @@
           <t>https://www.naukri.com/job-listings-graphic-web-designer-and-sr-graphic-web-designer-ajayvision-education-noida-uttar-pradesh-new-delhi-delhi-4-to-9-years-050723009243</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>WEST BENGAL</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6636,7 +7100,11 @@
           <t>https://www.naukri.com/job-listings-fleet-operations-manager-heavy-machine-operations-manager-radial-hr-solutions-bangalore-bengaluru-5-to-10-years-300623008737</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6682,7 +7150,11 @@
           <t>https://www.naukri.com/job-listings-infor-ln-technical-consultant-radial-hr-solutions-pune-mumbai-all-areas-5-to-10-years-300323009880</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>TAMIL NADU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6728,7 +7200,11 @@
           <t>https://www.naukri.com/job-listings-senior-net-backend-engineer-radial-hr-solutions-chennai-bangalore-bengaluru-6-to-11-years-290722902658</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6774,7 +7250,11 @@
           <t>https://www.naukri.com/job-listings-principal-backend-engineer-java-radial-hr-solutions-bangalore-bengaluru-3-to-8-years-290722902674</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6820,7 +7300,11 @@
           <t>https://www.naukri.com/job-listings-java-backend-developer-radial-hr-solutions-mysore-mysuru-bangalore-bengaluru-5-to-8-years-290722902685</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6866,7 +7350,11 @@
           <t>https://www.naukri.com/job-listings-bdm-bde-media-industry-radio-print-ooh-digital-radial-hr-solutions-chennai-bangalore-bengaluru-mumbai-all-areas-3-to-8-years-170723004606</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6912,7 +7400,11 @@
           <t>https://www.naukri.com/job-listings-business-development-managers-executives-outdoor-ooh-sales-radial-hr-solutions-noida-uttar-pradesh-bangalore-bengaluru-mumbai-all-areas-3-to-8-years-200723006316</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6958,7 +7450,11 @@
           <t>https://www.naukri.com/job-listings-bdm-bde-media-industry-radio-print-ooh-digital-radial-hr-solutions-noida-uttar-pradesh-bangalore-rural-karnataka-mumbai-all-areas-3-to-8-years-180723009715</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7004,7 +7500,11 @@
           <t>https://www.naukri.com/job-listings-iit-jee-neet-faculty-mathematics-biology-chemistry-radial-hr-solutions-bangalore-bengaluru-4-to-9-years-210423010803</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7050,7 +7550,11 @@
           <t>https://www.naukri.com/job-listings-bdm-bde-media-industry-radio-print-ooh-digital-radial-hr-solutions-chennai-bangalore-bengaluru-mumbai-all-areas-3-to-8-years-170723004606</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7096,7 +7600,11 @@
           <t>https://www.naukri.com/job-listings-business-development-managers-executives-outdoor-ooh-sales-radial-hr-solutions-noida-uttar-pradesh-bangalore-bengaluru-mumbai-all-areas-3-to-8-years-200723006316</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7142,7 +7650,11 @@
           <t>https://www.naukri.com/job-listings-bdm-bde-media-industry-radio-print-ooh-digital-radial-hr-solutions-noida-uttar-pradesh-bangalore-rural-karnataka-mumbai-all-areas-3-to-8-years-180723009715</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7188,7 +7700,11 @@
           <t>https://www.naukri.com/job-listings-postgresql-developer-radial-hr-solutions-hyderabad-secunderabad-8-to-13-years-200322000783</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -7236,7 +7752,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7800,11 @@
           <t>https://www.naukri.com/job-listings-upsc-general-studies-faculty-radial-hr-solutions-bangalore-bengaluru-1-to-6-years-270223005422</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7330,7 +7850,11 @@
           <t>https://www.naukri.com/job-listings-upsc-civil-services-general-studies-faculty-radial-hr-solutions-bangalore-bengaluru-1-to-6-years-270223012682</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7376,7 +7900,11 @@
           <t>https://www.naukri.com/job-listings-fpga-design-engineer-radial-hr-solutions-bangalore-bengaluru-5-to-7-years-240323011909</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7422,7 +7950,11 @@
           <t>https://www.naukri.com/job-listings-senior-sales-manager-bdm-building-materials-roofing-shingles-radial-hr-solutions-bangalore-bengaluru-4-to-9-years-150423005333</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7468,7 +8000,11 @@
           <t>https://www.naukri.com/job-listings-business-development-managers-executives-outdoor-ooh-sales-radial-hr-solutions-noida-uttar-pradesh-bangalore-bengaluru-mumbai-all-areas-3-to-8-years-170723004538</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7514,7 +8050,11 @@
           <t>https://www.naukri.com/job-listings-marketing-executive-building-materials-radial-hr-solutions-hyderabad-secunderabad-bangalore-bengaluru-1-to-6-years-160623010231</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -7560,7 +8100,11 @@
           <t>https://www.naukri.com/job-listings-senior-developer-net-full-stack-radial-hr-solutions-pune-mumbai-all-areas-2-to-5-years-140323006211</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>TAMIL NADU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -7606,7 +8150,11 @@
           <t>https://www.naukri.com/job-listings-sales-engineer-industrial-humidity-calibration-systems-radial-hr-solutions-bangalore-bengaluru-delhi-ncr-1-to-6-years-110723007593</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7652,7 +8200,11 @@
           <t>https://www.naukri.com/job-listings-erp-functional-consultant-finance-module-any-erp-ca-ca-inter-radial-hr-solutions-pune-mumbai-all-areas-2-to-7-years-140323006054</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>TAMIL NADU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7698,7 +8250,11 @@
           <t>https://www.naukri.com/job-listings-am-sales-it-software-crm-software-radial-hr-solutions-bangalore-bengaluru-delhi-ncr-1-to-6-years-110723007630</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7744,7 +8300,11 @@
           <t>https://www.naukri.com/job-listings-senior-sales-executive-machines-industrial-products-radial-hr-solutions-bangalore-bengaluru-2-to-7-years-130623005841</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7790,7 +8350,11 @@
           <t>https://www.naukri.com/job-listings-technical-lead-asp-net-api-gateway-cloud-radial-hr-solutions-pune-10-to-17-years-140223012996</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7836,7 +8400,11 @@
           <t>https://www.naukri.com/job-listings-php-developer-radial-hr-solutions-mangaluru-mangalore-6-to-11-years-110423011472</t>
         </is>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7882,7 +8450,11 @@
           <t>https://www.naukri.com/job-listings-senior-sales-manager-bdm-building-materials-roofing-shingles-radial-hr-solutions-kochi-cochin-hyderabad-secunderabad-bangalore-bengaluru-4-to-9-years-110423011448</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7928,7 +8500,11 @@
           <t>https://www.naukri.com/job-listings-senior-business-development-manager-bdm-roofing-shingles-radial-hr-solutions-kochi-cochin-hyderabad-secunderabad-bangalore-bengaluru-4-to-9-years-030423007414</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7974,7 +8550,11 @@
           <t>https://www.naukri.com/job-listings-manager-asst-manager-business-development-steel-industrial-radial-hr-solutions-chennai-bangalore-bengaluru-3-to-8-years-070723009345</t>
         </is>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8020,7 +8600,11 @@
           <t>https://www.naukri.com/job-listings-fpga-engineer-fpga-developer-radial-hr-solutions-bangalore-bengaluru-5-to-10-years-080323006101</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -8066,7 +8650,11 @@
           <t>https://www.naukri.com/job-listings-fpga-design-engineer-radial-hr-solutions-bangalore-bengaluru-5-to-7-years-100323007134</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -8112,7 +8700,11 @@
           <t>https://www.naukri.com/job-listings-business-development-manager-special-mechanical-products-radial-hr-solutions-bangalore-bengaluru-25-to-31-years-050523005260</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -8158,7 +8750,11 @@
           <t>https://www.naukri.com/job-listings-general-manager-sales-marketing-real-estate-radial-hr-solutions-bangalore-bengaluru-8-to-13-years-040723004947</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -8204,7 +8800,11 @@
           <t>https://www.naukri.com/job-listings-php-developer-radial-hr-solutions-mangaluru-mangalore-6-to-11-years-110423011472</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -8250,7 +8850,11 @@
           <t>https://www.naukri.com/job-listings-senior-sales-manager-bdm-building-materials-roofing-shingles-radial-hr-solutions-kochi-cochin-hyderabad-secunderabad-bangalore-bengaluru-4-to-9-years-110423011448</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8296,7 +8900,11 @@
           <t>https://www.naukri.com/job-listings-performance-test-engineer-orange-business-services-gurgaon-gurugram-haryana-3-to-8-years-240723002605</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8384,7 +8992,11 @@
           <t>https://www.naukri.com/job-listings-executive-billing-coordinator-omnicom-media-group-hyderabad-secunderabad-telangana-gurgaon-gurugram-haryana-chennai-tamil-nadu-coimbatore-tamil-nadu-bangalore-bengaluru-karnataka-mumbai-all-areas-4-to-6-years-240723002604</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8430,7 +9042,11 @@
           <t>https://www.naukri.com/job-listings-cardiac-surgery-nurse-incharge-rashtra-sant-anand-rishiji-hospital-ahmednagar-0-to-5-years-210323010164</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8476,7 +9092,11 @@
           <t>https://www.naukri.com/job-listings-hr-associate-operations-in-specialist-role-quetzal-verify-mumbai-0-to-2-years-150623005680</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>RAJASTHAN</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8522,7 +9142,11 @@
           <t>https://www.naukri.com/job-listings-recruitment-executive-senior-executive-aakash-educational-services-aesl-navi-mumbai-2-to-5-years-240723002601</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -8568,7 +9192,11 @@
           <t>https://www.naukri.com/job-listings-non-voice-email-chat-15k-in-hand-wfo-gurgaon-international-process-kvc-consultants-ltd-noida-gurgaon-gurugram-delhi-ncr-0-to-5-years-240723002598</t>
         </is>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -8614,7 +9242,11 @@
           <t>https://www.naukri.com/job-listings-cashier-patna-bangalore-lucknow-delhi-chandigarh-indore-baroda-talent-leads-hr-solutions-kolkata-west-bengal-chandigarh-chandigarh-indore-madhya-pradesh-patna-bihar-lucknow-uttar-pradesh-bangalore-bengaluru-3-to-8-years-240723002597</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -8660,7 +9292,11 @@
           <t>https://www.naukri.com/job-listings-orthopaedic-surgeon-rashtra-sant-anand-rishiji-hospital-ahmednagar-0-to-5-years-150219007942</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -8706,7 +9342,11 @@
           <t>https://www.naukri.com/job-listings-clinical-safety-officer-rashtra-sant-anand-rishiji-hospital-ahmednagar-0-to-5-years-040622002652</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -8752,7 +9392,11 @@
           <t>https://www.naukri.com/job-listings-general-surgeon-rashtra-sant-anand-rishiji-hospital-ahmednagar-0-to-5-years-051119005210</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -8798,7 +9442,11 @@
           <t>https://www.naukri.com/job-listings-cardiac-surgeon-rashtra-sant-anandrishiji-hospital-ahmednagar-maharashtra-0-to-5-years-260623000772</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8844,7 +9492,11 @@
           <t>https://www.naukri.com/job-listings-restaurant-manager-bar-background-salesforce-noida-uttar-pradesh-4-to-9-years-240723002596</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>MADHYA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8890,7 +9542,11 @@
           <t>https://www.naukri.com/job-listings-senior-recruitment-associate-peoplestrong-hazira-gujarat-surat-gujarat-2-to-5-years-240723002595</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8936,7 +9592,11 @@
           <t>https://www.naukri.com/job-listings-hr-recruiter-simho-hr-services-chennai-tamil-nadu-1-to-2-years-240723002594</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8982,7 +9642,11 @@
           <t>https://www.naukri.com/job-listings-branch-operations-executive-intellismith-consultancy-vijayawada-andhra-pradesh-guntur-andhra-pradesh-1-to-6-years-240723002593</t>
         </is>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -9028,7 +9692,11 @@
           <t>https://www.naukri.com/job-listings-b2b-collections-imaginators-try-going-beyond-gurgaon-gurugram-haryana-3-to-7-years-240723002592</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -9074,7 +9742,11 @@
           <t>https://www.naukri.com/job-listings-sales-executive-sales-engineer-megma-services-ahmedabad-rajkot-0-to-1-years-240723902591</t>
         </is>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>TAMIL NADU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -9120,7 +9792,11 @@
           <t>https://www.naukri.com/job-listings-full-stack-node-js-villagers-product-meerut-uttar-pradesh-1-to-2-years-240723002590</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -9166,7 +9842,11 @@
           <t>https://www.naukri.com/job-listings-opportunity-for-sap-cpi-consultant-with-it-resonance-it-resonance-inc-chennai-3-to-8-years-240723002589</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -9212,7 +9892,11 @@
           <t>https://www.naukri.com/job-listings-chef-nandus-foods-bangalore-bengaluru-karnataka-1-to-5-years-240723002588</t>
         </is>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -9260,7 +9944,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -9308,7 +9992,11 @@
           <t>https://www.naukri.com/job-listings-quantity-surveyor-mythri-infra-visakhapatnam-vizag-andhra-pradesh-10-to-20-years-240723002586</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -9354,7 +10042,11 @@
           <t>https://www.naukri.com/job-listings-java-golang-developer-tekbon-hyderabad-secunderabad-6-to-11-years-240723002585</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -9400,7 +10092,11 @@
           <t>https://www.naukri.com/job-listings-hr-executive-scheduler-rekrut-india-mumbai-maharashtra-mumbai-suburban-maharashtra-1-to-4-years-240723002584</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -9488,7 +10184,11 @@
           <t>https://www.naukri.com/job-listings-virtual-relationship-manager-coimbatore-hdfc-bank-coimbatore-tamil-nadu-1-to-5-years-240723002581</t>
         </is>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>KARNATAKA</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -9578,7 +10278,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -9626,7 +10326,11 @@
           <t>https://www.naukri.com/job-listings-internal-audit-executive-corporate-lk-consultants-mumbai-ghatkopar-5-to-7-years-240723902579</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -9674,7 +10378,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -9722,7 +10426,11 @@
           <t>https://www.naukri.com/job-listings-category-manager-small-home-appliances-mployglobal-gurgaon-gurugram-6-to-10-years-240723902576</t>
         </is>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -9768,7 +10476,11 @@
           <t>https://www.naukri.com/job-listings-category-manager-small-home-appliances-mployglobal-gurgaon-gurugram-6-to-10-years-240723902576</t>
         </is>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -9816,7 +10528,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
     </row>
@@ -9866,7 +10578,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -9914,7 +10626,11 @@
           <t>https://www.naukri.com/job-listings-iti-technician-fresher-kaarlo-training-hr-solutions-pvt-ltd-perambalur-0-to-1-years-240723902574</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9962,7 +10678,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -10052,7 +10768,11 @@
           <t>https://www.naukri.com/job-listings-commi-2-convocare-hr-counselling-services-llp-thane-maharashtra-1-to-4-years-240723002573</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -10098,7 +10818,11 @@
           <t>https://www.naukri.com/job-listings-fico-consultant-lead-serving-skill-kolkata-mumbai-hyderabad-secunderabad-pune-chennai-ahmedabad-delhi-ncr-bangalore-bengaluru-6-to-11-years-240723902567</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -10146,7 +10870,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -10194,7 +10918,11 @@
           <t>https://www.naukri.com/job-listings-telesales-executive-sone-india-group-of-industries-noida-2-to-4-years-240723902568</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -10240,7 +10968,11 @@
           <t>https://www.naukri.com/job-listings-lead-qa-engineer-sunsign-hiring-navi-mumbai-7-to-12-years-240723902570</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -10286,7 +11018,11 @@
           <t>https://www.naukri.com/job-listings-talent-acquisition-specialist-bfsi-serving-skill-hyderabad-secunderabad-4-to-9-years-240723902565</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -10334,7 +11070,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -10384,7 +11120,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -10433,7 +11169,11 @@
           <t>https://www.naukri.com/job-listings-great-opportunity-for-graduate-freshers-in-noida-ienergizer-noida-uttar-pradesh-0-to-5-years-240723002562</t>
         </is>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -10479,7 +11219,11 @@
           <t>https://www.naukri.com/job-listings-electrical-project-supervisor-rims-manpower-solutions-bangalore-bengaluru-3-to-5-years-080623006364</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -10525,7 +11269,11 @@
           <t>https://www.naukri.com/job-listings-business-development-officer-shand-pipe-industry-tirunelveli-tamil-nadu-vellore-tamil-nadu-erode-tamil-nadu-3-to-5-years-240723002561</t>
         </is>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>TAMIL NADU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -10573,7 +11321,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -10621,7 +11369,11 @@
           <t>https://www.naukri.com/job-listings-customer-care-associate-voice-gurgaon-salary-18k-grad-freshers-kvc-consultants-ltd-noida-gurgaon-gurugram-delhi-ncr-0-to-5-years-240723002558</t>
         </is>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -10667,7 +11419,11 @@
           <t>https://www.naukri.com/job-listings-office-assistant-ciel-hr-mumbai-maharashtra-mumbai-all-areas-1-to-5-years-240723002557</t>
         </is>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -10713,7 +11469,11 @@
           <t>https://www.naukri.com/job-listings-customer-care-associate-voice-gurgaon-salary-18k-grad-freshers-kvc-consultants-ltd-noida-gurgaon-gurugram-delhi-ncr-0-to-5-years-240723002558</t>
         </is>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -10759,7 +11519,11 @@
           <t>https://www.naukri.com/job-listings-office-assistant-ciel-hr-mumbai-maharashtra-mumbai-all-areas-1-to-5-years-240723002557</t>
         </is>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -10805,7 +11569,11 @@
           <t>https://www.naukri.com/job-listings-production-trainee-a-reputed-jewellery-manufacturing-company-mumbai-suburban-maharashtra-0-to-1-years-240723001902</t>
         </is>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -10851,7 +11619,11 @@
           <t>https://www.naukri.com/job-listings-robotic-programmer-aspire-consultants-pune-maharashtra-3-to-8-years-240723002556</t>
         </is>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -10897,7 +11669,11 @@
           <t>https://www.naukri.com/job-listings-qa-fraud-analyst-2coms-gurgaon-gurugram-2-to-7-years-240723902555</t>
         </is>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -10943,7 +11719,11 @@
           <t>https://www.naukri.com/job-listings-interior-designer-mumbai-high-end-interior-firm-oasis-thane-navi-mumbai-mumbai-all-areas-6-to-8-years-040723006664</t>
         </is>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>TAMIL NADU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -10989,7 +11769,11 @@
           <t>https://www.naukri.com/job-listings-sales-executive-bangalore-for-pcb-manufacturing-company-abridge-consulting-services-bangalore-bengaluru-2-to-7-years-240723002554</t>
         </is>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -11035,7 +11819,11 @@
           <t>https://www.naukri.com/job-listings-resort-manager-karma-hospitality-belagavi-belgaum-5-to-8-years-260423006791</t>
         </is>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>MADHYA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -11081,7 +11869,11 @@
           <t>https://www.naukri.com/job-listings-looking-for-react-developer-node-js-developer-axion-tech-systems-pvt-ltd-ahmedabad-gujarat-3-to-7-years-240723002552</t>
         </is>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -11127,7 +11919,11 @@
           <t>https://www.naukri.com/job-listings-openings-for-experienced-international-voice-process-noida-scope-business-solutions-noida-uttar-pradesh-0-to-2-years-240723002551</t>
         </is>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -11173,7 +11969,11 @@
           <t>https://www.naukri.com/job-listings-hiring-for-principal-alpine-convent-school-gurgaon-gurugram-haryana-2-to-5-years-240723002550</t>
         </is>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -11219,7 +12019,11 @@
           <t>https://www.naukri.com/job-listings-back-office-executive-anand-agencies-mumbai-suburban-maharashtra-0-to-1-years-150623005283</t>
         </is>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -11265,7 +12069,11 @@
           <t>https://www.naukri.com/job-listings-doctor-healing-hands-clinic-kolhapur-maharashtra-indore-madhya-pradesh-navi-mumbai-maharashtra-0-to-5-years-240723002549</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -11311,7 +12119,11 @@
           <t>https://www.naukri.com/job-listings-e-commerce-specialist-kaydee-sons-pune-maharashtra-2-to-7-years-240723002548</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -11357,7 +12169,11 @@
           <t>https://www.naukri.com/job-listings-python-django-developer-snap-on-business-solutions-sbs-noida-2-to-4-years-110723005430</t>
         </is>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -11403,7 +12219,11 @@
           <t>https://www.naukri.com/job-listings-assistant-manager-deputy-manager-costing-tulip-consulting-services-kharagpur-west-bengal-8-to-10-years-240723002547</t>
         </is>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -11449,7 +12269,11 @@
           <t>https://www.naukri.com/job-listings-international-travel-customer-care-voice-sal-25k-in-hand-gurgaon-kvc-consultants-ltd-noida-gurgaon-gurugram-delhi-ncr-1-to-6-years-240723002544</t>
         </is>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -11495,7 +12319,11 @@
           <t>https://www.naukri.com/job-listings-senior-java-developer-snap-on-business-solutions-sbs-noida-4-to-7-years-040723008345</t>
         </is>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>MADHYA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -11541,7 +12369,11 @@
           <t>https://www.naukri.com/job-listings-medical-advisor-falck-gurgaon-gurugram-8-to-10-years-281022005398</t>
         </is>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -11589,7 +12421,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>GUJARAT</t>
         </is>
       </c>
     </row>
@@ -11637,7 +12469,11 @@
           <t>https://www.naukri.com/job-listings-key-accounts-manager-guwahati-marine-garuda-power-guwahati-assam-4-to-6-years-240723002542</t>
         </is>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -11725,7 +12561,11 @@
           <t>https://www.naukri.com/job-listings-urgent-hub-executive-last-mile-operations-ecommerce-logistics-ikamate-chennai-2-to-7-years-240723002540</t>
         </is>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -11771,7 +12611,11 @@
           <t>https://www.naukri.com/job-listings-angular-developer-reflion-tech-chennai-tamil-nadu-2-to-4-years-240723002539</t>
         </is>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -11817,7 +12661,11 @@
           <t>https://www.naukri.com/job-listings-pmo-executive-larsen-toubro-l-t-vadodara-baroda-gujarat-4-to-9-years-240723002538</t>
         </is>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -11863,7 +12711,11 @@
           <t>https://www.naukri.com/job-listings-store-manager-hyderabad-pune-kolkata-ahmedabad-chennai-indore-talent-leads-hr-solutions-kolkata-west-bengal-indore-madhya-pradesh-hyderabad-secunderabad-telangana-pune-maharashtra-ahmedabad-gujarat-chennai-tamil-5-to-10-years-240723002537</t>
         </is>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -11909,7 +12761,11 @@
           <t>https://www.naukri.com/job-listings-hiring-for-international-chat-support-gautam-consultancy-ahmedabad-0-to-0-years-240723002536</t>
         </is>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -11955,7 +12811,11 @@
           <t>https://www.naukri.com/job-listings-electrical-design-engineer-from-epc-honeybeez-consultancy-thane-maharashtra-6-to-8-years-060723006226</t>
         </is>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -12001,7 +12861,11 @@
           <t>https://www.naukri.com/job-listings-sap-abap-developer-solix-technologies-hyderabad-secunderabad-telangana-5-to-9-years-240723002535</t>
         </is>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -12047,7 +12911,11 @@
           <t>https://www.naukri.com/job-listings-procurement-buyer-with-3-years-pkc-advisory-gurgaon-pulsar-knowledge-centre-gurgaon-gurugram-haryana-3-to-5-years-240723002534</t>
         </is>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -12093,7 +12961,11 @@
           <t>https://www.naukri.com/job-listings-us-travel-sales-consultants-travel-sales-usa-shift-talent-city-consultants-noida-gurgaon-gurugram-delhi-ncr-1-to-5-years-070922002342</t>
         </is>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -12139,7 +13011,11 @@
           <t>https://www.naukri.com/job-listings-us-it-bench-sales-recruiter-cloud-zenix-pvt-ltd-bangalore-bengaluru-karnataka-3-to-5-years-240723002532</t>
         </is>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -12185,7 +13061,11 @@
           <t>https://www.naukri.com/job-listings-hr-executive-sourcer-rekrut-india-mumbai-maharashtra-mumbai-suburban-maharashtra-1-to-4-years-240723002531</t>
         </is>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -12231,7 +13111,11 @@
           <t>https://www.naukri.com/job-listings-immediate-hiring-net-mvc-developer-for-noida-sonet-microsystems-pvt-ltd-noida-uttar-pradesh-1-to-6-years-240723002530</t>
         </is>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -12319,7 +13203,11 @@
           <t>https://www.naukri.com/job-listings-zonal-sales-manager-glocrest-pharmaceutical-chandigarh-chandigarh-karnal-haryana-10-to-15-years-240723002527</t>
         </is>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -12365,7 +13253,11 @@
           <t>https://www.naukri.com/job-listings-essbase-developer-disys-india-pune-maharashtra-gurgaon-gurugram-haryana-chennai-bangalore-bengaluru-5-to-8-years-240723002526</t>
         </is>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -12411,7 +13303,11 @@
           <t>https://www.naukri.com/job-listings-customer-support-associate-inbound-voice-ecommerce-bpo-kolkata-2coms-kolkata-kolkata-0-to-5-years-240723902525</t>
         </is>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -12457,7 +13353,11 @@
           <t>https://www.naukri.com/job-listings-digital-printer-operator-nirlon-kitchenware-pvt-ltd-palghar-maharashtra-0-to-1-years-240723002524</t>
         </is>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -12503,7 +13403,11 @@
           <t>https://www.naukri.com/job-listings-sr-salesforce-developer-contract-role-varite-hyderabad-secunderabad-telangana-5-to-10-years-140323009347</t>
         </is>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -12549,7 +13453,11 @@
           <t>https://www.naukri.com/job-listings-sr-salesforce-developer-contract-role-varite-hyderabad-secunderabad-telangana-5-to-10-years-140323009347</t>
         </is>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -12595,7 +13503,11 @@
           <t>https://www.naukri.com/job-listings-world-s-best-bpo-is-hiring-for-chat-support-executive-bangalore-jobshop-bangalore-bengaluru-2-to-7-years-240723002522</t>
         </is>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -12641,7 +13553,11 @@
           <t>https://www.naukri.com/job-listings-urgent-requirement-for-real-time-medical-scribes-hyderabad-elico-healthcare-services-hyderabad-secunderabad-telangana-1-to-3-years-240723002521</t>
         </is>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -12687,7 +13603,11 @@
           <t>https://www.naukri.com/job-listings-toxicologist-curia-india-private-ltd-shamirpet-telangana-hyderabad-secunderabad-telangana-3-to-7-years-240723002519</t>
         </is>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -12733,7 +13653,11 @@
           <t>https://www.naukri.com/job-listings-purchase-engineer-gladico-motocorp-pvt-ltd-faridabad-haryana-3-to-8-years-240723002517</t>
         </is>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -12779,7 +13703,11 @@
           <t>https://www.naukri.com/job-listings-executive-closing-and-reporting-kelly-outsourcing-and-consulting-group-india-priv-ate-limited-new-delhi-delhi-gurgaon-gurugram-haryana-delhi-ncr-2-to-4-years-240723002516</t>
         </is>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -12825,7 +13753,11 @@
           <t>https://www.naukri.com/job-listings-business-development-executive-sales-manager-digital-marketing-das-writing-services-kolkata-0-to-2-years-240723002515</t>
         </is>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>TAMIL NADU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -12871,7 +13803,11 @@
           <t>https://www.naukri.com/job-listings-senior-product-engineer-bangalore-harita-techserv-bangalore-bengaluru-5-to-7-years-110723008359</t>
         </is>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -12917,7 +13853,11 @@
           <t>https://www.naukri.com/job-listings-senior-clinical-data-coordinator-cdc-ii-icon-plc-chennai-bangalore-bengaluru-trivandrum-thiruvananthapuram-kerala-3-to-7-years-210623007875</t>
         </is>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -12963,7 +13903,11 @@
           <t>https://www.naukri.com/job-listings-automotive-embedded-software-developer-june-2023-tata-elxsi-pune-bangalore-bengaluru-trivandrum-thiruvananthapuram-3-to-8-years-050423003764</t>
         </is>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -13009,7 +13953,11 @@
           <t>https://www.naukri.com/job-listings-recruiter-executive-human-resource-recruiter-darshan-apparels-pune-maharashtra-2-to-3-years-220723004498</t>
         </is>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -13055,7 +14003,11 @@
           <t>https://www.naukri.com/job-listings-hiring-for-pilot-batch-with-both-side-cab-foundever-gurgaon-gurugram-haryana-0-to-5-years-240723002499</t>
         </is>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -13101,7 +14053,11 @@
           <t>https://www.naukri.com/job-listings-business-analyst-transace-tax-hr-advisors-bangalore-bengaluru-karnataka-1-to-6-years-240723002496</t>
         </is>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -13147,7 +14103,11 @@
           <t>https://www.naukri.com/job-listings-senior-software-engineer-frontend-healthplix-technologies-bangalore-bengaluru-karnataka-3-to-6-years-240723002341</t>
         </is>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -13193,7 +14153,11 @@
           <t>https://www.naukri.com/job-listings-academic-advisor-mentor-unext-learning-bangalore-bengaluru-1-to-4-years-240723002495</t>
         </is>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -13239,7 +14203,11 @@
           <t>https://www.naukri.com/job-listings-boutique-operations-specialist-hyderabad-pune-kolkata-ahmedabad-talent-leads-hr-solutions-kolkata-west-bengal-hyderabad-secunderabad-telangana-pune-maharashtra-ahmedabad-gujarat-chennai-tamil-nadu-surat-gujarat-3-to-6-years-240723002494</t>
         </is>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -13285,7 +14253,11 @@
           <t>https://www.naukri.com/job-listings-project-manager-operations-pmo-velocitai-digital-gurgaon-gurugram-haryana-4-to-9-years-240723002493</t>
         </is>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -13331,7 +14303,11 @@
           <t>https://www.naukri.com/job-listings-business-development-executive-qseap-infotech-bangalore-bengaluru-karnataka-2-to-4-years-240723002492</t>
         </is>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -13377,7 +14353,11 @@
           <t>https://www.naukri.com/job-listings-embedded-software-developer-c-c-linux-sip-rtp-shure-audio-technologies-hyderabad-secunderabad-3-to-8-years-160123005403</t>
         </is>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -13423,7 +14403,11 @@
           <t>https://www.naukri.com/job-listings-hiring-4-mnc-international-customer-service-voice-process-talent-city-consultants-new-delhi-gurgaon-gurugram-delhi-ncr-1-to-3-years-130223002461</t>
         </is>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -13469,7 +14453,11 @@
           <t>https://www.naukri.com/job-listings-frontend-developer-angular-typescript-shure-audio-technologies-hyderabad-secunderabad-3-to-8-years-261022012469</t>
         </is>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -13557,7 +14545,11 @@
           <t>https://www.naukri.com/job-listings-channel-sales-manager-smap-logistics-nandyal-andhra-pradesh-gonda-uttar-pradesh-tirupati-andhra-pradesh-kupwara-jammu-kashmir-durg-chhattisgarh-azamgarh-uttar-pradesh-lucknow-uttar-pradesh-agra-uttar-pradesh-3-to-8-years-240723002490</t>
         </is>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -13603,7 +14595,11 @@
           <t>https://www.naukri.com/job-listings-senior-software-developer-devops-shure-audio-technologies-hyderabad-secunderabad-4-to-9-years-090523006316</t>
         </is>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -13649,7 +14645,11 @@
           <t>https://www.naukri.com/job-listings-reactjs-developer-dm-3673-oodles-technologies-gurgaon-gurugram-haryana-2-to-4-years-240723002489</t>
         </is>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -13695,7 +14695,11 @@
           <t>https://www.naukri.com/job-listings-front-office-executive-iss-india-ahmedabad-gujarat-2-to-7-years-240723002488</t>
         </is>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -13743,7 +14747,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>GUJARAT</t>
         </is>
       </c>
     </row>
@@ -13791,7 +14795,11 @@
           <t>https://www.naukri.com/job-listings-office-365-developer-shure-audio-technologies-hyderabad-secunderabad-telangana-4-to-8-years-261222001684</t>
         </is>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -13837,7 +14845,11 @@
           <t>https://www.naukri.com/job-listings-front-office-guest-relations-officer-space-creattors-heights-pvt-ltd-gurgaon-gurugram-haryana-3-to-5-years-240723002486</t>
         </is>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -13883,7 +14895,11 @@
           <t>https://www.naukri.com/job-listings-3d-cake-maker-convocare-hr-counselling-services-llp-thane-maharashtra-2-to-7-years-240723002485</t>
         </is>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -13929,7 +14945,11 @@
           <t>https://www.naukri.com/job-listings-gold-loan-officer-grampro-business-services-bilaspur-chhattisgarh-raipur-chhattisgarh-amravati-maharashtra-1-to-5-years-200623010056</t>
         </is>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -13975,7 +14995,11 @@
           <t>https://www.naukri.com/job-listings-lead-auditor-ims-quality-environment-ohs-enms-sa-8000-dnv-hyderabad-secunderabad-telangana-8-to-13-years-200623003871</t>
         </is>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -14021,7 +15045,11 @@
           <t>https://www.naukri.com/job-listings-data-warehouse-analyst-iitjobs-inc-pune-maharashtra-4-to-8-years-240723002484</t>
         </is>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -14067,7 +15095,11 @@
           <t>https://www.naukri.com/job-listings-retention-marketing-manager-dodo-skills-india-new-delhi-delhi-delhi-ncr-2-to-6-years-240723002190</t>
         </is>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -14113,7 +15145,11 @@
           <t>https://www.naukri.com/job-listings-tech-lead-inriver-pim-aarvi-encon-indore-madhya-pradesh-pune-maharashtra-8-to-10-years-100723004059</t>
         </is>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -14159,7 +15195,11 @@
           <t>https://www.naukri.com/job-listings-final-qc-associate-a-reputed-jewellery-manufacturing-company-mumbai-suburban-maharashtra-6-to-10-years-240723002481</t>
         </is>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -14205,7 +15245,11 @@
           <t>https://www.naukri.com/job-listings-front-office-executive-essencea-infoserv-pvt-ltd-hyderabad-secunderabad-0-to-2-years-240723002480</t>
         </is>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -14251,7 +15295,11 @@
           <t>https://www.naukri.com/job-listings-chat-process-executive-wfh-english-teleperformance-tp-kolkata-ahmedabad-bangalore-bengaluru-mumbai-all-areas-1-to-5-years-240723002479</t>
         </is>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -14297,7 +15345,11 @@
           <t>https://www.naukri.com/job-listings-sr-photographer-home-centre-landmark-group-bangalore-homecentre-lisfestyle-bangalore-bengaluru-6-to-11-years-240723002478</t>
         </is>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -14343,7 +15395,11 @@
           <t>https://www.naukri.com/job-listings-service-delivery-associate-inbound-mynd-integrated-solutions-new-delhi-delhi-0-to-3-years-240723002477</t>
         </is>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -14389,7 +15445,11 @@
           <t>https://www.naukri.com/job-listings-hiring-for-french-foundever-gurgaon-gurugram-haryana-0-to-5-years-240723002476</t>
         </is>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -14435,7 +15495,11 @@
           <t>https://www.naukri.com/job-listings-channel-sales-manager-roadex-smap-logistics-dhanera-gujarat-yavatmal-yeotmal-maharashtra-surat-gujarat-raebareli-uttar-pradesh-achalpur-maharashtra-1-to-5-years-240723002475</t>
         </is>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -14481,7 +15545,11 @@
           <t>https://www.naukri.com/job-listings-scn-cn-finance-us-based-faas-category-bangalore-rforce-management-resources-bangalore-bengaluru-5-to-10-years-240723002473</t>
         </is>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -14527,7 +15595,11 @@
           <t>https://www.naukri.com/job-listings-lead-analyst-digital-marketing-analytics-cimpress-bangalore-bengaluru-karnataka-8-to-13-years-150623007504</t>
         </is>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -14575,7 +15647,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamil Nadu </t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
     </row>
@@ -14623,7 +15695,11 @@
           <t>https://www.naukri.com/job-listings-accounts-officer-manager-dayananda-vidyalaya-matric-higher-secondary-school-tirupathur-tamil-nadu-2-to-5-years-240723002472</t>
         </is>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>KARNATAKA</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -14669,7 +15745,11 @@
           <t>https://www.naukri.com/job-listings-mail-room-executive-male-requirement-sodexo-hyderabad-secunderabad-3-to-5-years-100723001220</t>
         </is>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -14717,7 +15797,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamil Nadu </t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
     </row>
@@ -14765,7 +15845,11 @@
           <t>https://www.naukri.com/job-listings-secondary-computer-teacher-icse-vibgyor-school-marathahalli-vibgyor-group-of-schools-bangalore-bengaluru-2-to-7-years-220322006076</t>
         </is>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -14811,7 +15895,11 @@
           <t>https://www.naukri.com/job-listings-vacancy-for-international-voice-process-in-a-mnc-company-randstad-kolkata-west-bengal-1-to-3-years-110723003851</t>
         </is>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -14857,7 +15945,11 @@
           <t>https://www.naukri.com/job-listings-aws-devops-trainer-fusion-software-institute-pune-maharashtra-3-to-5-years-240723002469</t>
         </is>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -14903,7 +15995,11 @@
           <t>https://www.naukri.com/job-listings-openings-for-distribution-planner-tech-mahindra-gurgaon-gurugram-haryana-1-to-5-years-240723002468</t>
         </is>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -14949,7 +16045,11 @@
           <t>https://www.naukri.com/job-listings-openings-for-cloud-devops-mnc-product-company-chennai-consulttrinity-services-pondicherry-puducherry-puducherry-chennai-8-to-12-years-240723002467</t>
         </is>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -14995,7 +16095,11 @@
           <t>https://www.naukri.com/job-listings-team-leader-operations-us-healthcare-payer-sagility-chennai-sagility-india-chennai-tamil-nadu-4-to-9-years-240723002466</t>
         </is>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -15041,7 +16145,11 @@
           <t>https://www.naukri.com/job-listings-clinical-data-svs-sr-analyst-clinical-accenture-solutions-pvt-ltd-hyderabad-secunderabad-5-to-8-years-170523909765</t>
         </is>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -15087,7 +16195,11 @@
           <t>https://www.naukri.com/job-listings-workday-hcm-testing-application-lead-accenture-solutions-pvt-ltd-gurgaon-gurugram-8-to-10-years-150523906963</t>
         </is>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -15133,7 +16245,11 @@
           <t>https://www.naukri.com/job-listings-service-desk-management-application-tech-support-practitioner-accenture-solutions-pvt-ltd-bangalore-bengaluru-1-to-3-years-170523909766</t>
         </is>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -15179,7 +16295,11 @@
           <t>https://www.naukri.com/job-listings-kronos-software-application-designer-accenture-bangalore-bengaluru-4-to-6-years-010223907206</t>
         </is>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -15227,7 +16347,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamil Nadu </t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
     </row>
@@ -15275,7 +16395,11 @@
           <t>https://www.naukri.com/job-listings-sap-ariba-application-lead-accenture-bangalore-bengaluru-4-to-6-years-200223904208</t>
         </is>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -15321,7 +16445,11 @@
           <t>https://www.naukri.com/job-listings-workday-core-integrations-application-lead-accenture-solutions-pvt-ltd-gurgaon-gurugram-8-to-10-years-150523907265</t>
         </is>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -15369,7 +16497,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamil Nadu </t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
     </row>
@@ -15417,7 +16545,11 @@
           <t>https://www.naukri.com/job-listings-clinical-data-svs-sr-analyst-clinical-accenture-solutions-pvt-ltd-hyderabad-secunderabad-5-to-8-years-170523909765</t>
         </is>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -15463,7 +16595,11 @@
           <t>https://www.naukri.com/job-listings-workday-hcm-testing-application-lead-accenture-solutions-pvt-ltd-gurgaon-gurugram-8-to-10-years-150523906963</t>
         </is>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -15509,7 +16645,11 @@
           <t>https://www.naukri.com/job-listings-service-desk-management-application-tech-support-practitioner-accenture-solutions-pvt-ltd-bangalore-bengaluru-1-to-3-years-170523909766</t>
         </is>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -15555,7 +16695,11 @@
           <t>https://www.naukri.com/job-listings-kronos-software-application-designer-accenture-bangalore-bengaluru-4-to-6-years-010223907206</t>
         </is>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -15601,7 +16745,11 @@
           <t>https://www.naukri.com/job-listings-sap-mm-materials-management-application-lead-accenture-solutions-pvt-ltd-gurgaon-gurugram-8-to-10-years-010523901135</t>
         </is>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -15647,7 +16795,11 @@
           <t>https://www.naukri.com/job-listings-clinical-data-svs-sr-analyst-clinical-accenture-solutions-pvt-ltd-hyderabad-secunderabad-5-to-8-years-170523909759</t>
         </is>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -15693,7 +16845,11 @@
           <t>https://www.naukri.com/job-listings-controllership-analyst-finance-processes-and-operations-accenture-solutions-pvt-ltd-bangalore-bengaluru-3-to-5-years-030523905467</t>
         </is>
       </c>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -15739,7 +16895,11 @@
           <t>https://www.naukri.com/job-listings-finance-process-enablement-associate-manager-finance-operations-accenture-solutions-pvt-ltd-gurgaon-gurugram-10-to-14-years-170523911571</t>
         </is>
       </c>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -15787,7 +16947,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>GUJARAT</t>
         </is>
       </c>
     </row>
@@ -15837,7 +16997,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamil Nadu </t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
     </row>
@@ -15885,7 +17045,11 @@
           <t>https://www.naukri.com/job-listings-record-to-report-ops-senior-analyst-record-to-report-accenture-solutions-pvt-ltd-gurgaon-gurugram-5-to-8-years-010523903264</t>
         </is>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -15931,7 +17095,11 @@
           <t>https://www.naukri.com/job-listings-oracle-sales-cloud-sales-force-automation-application-designer-accenture-solutions-pvt-ltd-bangalore-bengaluru-4-to-6-years-170523911539</t>
         </is>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -15977,7 +17145,11 @@
           <t>https://www.naukri.com/job-listings-kentico-content-management-system-cms-application-developer-accenture-solutions-pvt-ltd-noida-hyderabad-secunderabad-gurgaon-gurugram-4-to-6-years-170523910113</t>
         </is>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -16023,7 +17195,11 @@
           <t>https://www.naukri.com/job-listings-industry-x-aero-engineering-design-engineering-11-accenture-bangalore-bengaluru-4-to-5-years-300123907201</t>
         </is>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -16069,7 +17245,11 @@
           <t>https://www.naukri.com/job-listings-cyberark-privileged-identity-access-management-security-architect-accenture-solutions-pvt-ltd-bangalore-bengaluru-6-to-8-years-280423907061</t>
         </is>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -16115,7 +17295,11 @@
           <t>https://www.naukri.com/job-listings-net-full-stack-development-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-4-to-6-years-190523904759</t>
         </is>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -16163,7 +17347,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -16211,7 +17395,11 @@
           <t>https://www.naukri.com/job-listings-customer-service-new-associate-query-management-accenture-solutions-pvt-ltd-gurgaon-gurugram-0-to-1-years-150523905962</t>
         </is>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -16257,7 +17445,11 @@
           <t>https://www.naukri.com/job-listings-contract-management-analyst-accenture-solutions-pvt-ltd-gurgaon-gurugram-3-to-5-years-050523902598</t>
         </is>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -16303,7 +17495,11 @@
           <t>https://www.naukri.com/job-listings-procure-to-pay-operations-associate-procure-to-pay-processing-accenture-solutions-pvt-ltd-gurgaon-gurugram-1-to-3-years-030523906569</t>
         </is>
       </c>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -16349,7 +17545,11 @@
           <t>https://www.naukri.com/job-listings-post-merger-integration-analyst-accenture-solutions-pvt-ltd-bangalore-bengaluru-2-to-5-years-300423900907</t>
         </is>
       </c>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -16395,7 +17595,11 @@
           <t>https://www.naukri.com/job-listings-internal-controls-compliance-specialist-it-audit-accenture-solutions-pvt-ltd-gurgaon-gurugram-4-to-8-years-180523908302</t>
         </is>
       </c>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -16441,7 +17645,11 @@
           <t>https://www.naukri.com/job-listings-workday-core-hcm-technology-consulting-practitioner-accenture-solutions-pvt-ltd-bangalore-bengaluru-12-to-15-years-150523906962</t>
         </is>
       </c>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -16487,7 +17695,11 @@
           <t>https://www.naukri.com/job-listings-solution-architecting-solution-architect-accenture-solutions-pvt-ltd-bangalore-bengaluru-15-to-18-years-150523906898</t>
         </is>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -16533,7 +17745,11 @@
           <t>https://www.naukri.com/job-listings-salesforce-development-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-4-to-6-years-170523908573</t>
         </is>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -16579,7 +17795,11 @@
           <t>https://www.naukri.com/job-listings-assistant-manager-sme-rtr-otc-ptp-sourcehov-pune-chennai-10-to-15-years-030523009858</t>
         </is>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -16627,7 +17847,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -16675,7 +17895,11 @@
           <t>https://www.naukri.com/job-listings-vistex-application-lead-accenture-bangalore-bengaluru-8-to-10-years-130223902514</t>
         </is>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -16721,7 +17945,11 @@
           <t>https://www.naukri.com/job-listings-finance-business-management-specialist-accenture-solutions-pvt-ltd-bangalore-bengaluru-7-to-11-years-120523900089</t>
         </is>
       </c>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -16767,7 +17995,11 @@
           <t>https://www.naukri.com/job-listings-sap-fi-co-finance-application-lead-accenture-solutions-pvt-ltd-bangalore-bengaluru-6-to-8-years-170523911570</t>
         </is>
       </c>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -16815,7 +18047,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
     </row>
@@ -16863,7 +18095,11 @@
           <t>https://www.naukri.com/job-listings-kentico-content-management-system-cms-application-lead-accenture-solutions-pvt-ltd-gurgaon-gurugram-6-to-8-years-170523910130</t>
         </is>
       </c>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -16909,7 +18145,11 @@
           <t>https://www.naukri.com/job-listings-sap-fi-s-4hana-accounting-deployment-lead-accenture-solutions-pvt-ltd-bangalore-bengaluru-6-to-8-years-160523908054</t>
         </is>
       </c>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -16955,7 +18195,11 @@
           <t>https://www.naukri.com/job-listings-sap-quality-management-qm-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-8-to-10-years-170523911305</t>
         </is>
       </c>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -17001,7 +18245,11 @@
           <t>https://www.naukri.com/job-listings-microsoft-azure-containerization-development-application-developer-accenture-gurgaon-gurugram-4-to-6-years-200223904394</t>
         </is>
       </c>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -17047,7 +18295,11 @@
           <t>https://www.naukri.com/job-listings-corporate-development-financial-due-diligence-manager-accenture-solutions-pvt-ltd-bangalore-bengaluru-4-to-8-years-030523906650</t>
         </is>
       </c>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -17093,7 +18345,11 @@
           <t>https://www.naukri.com/job-listings-procure-to-pay-operations-senior-analyst-procure-to-pay-processing-accenture-solutions-pvt-ltd-gurgaon-gurugram-5-to-8-years-100523906975</t>
         </is>
       </c>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -17139,7 +18395,11 @@
           <t>https://www.naukri.com/job-listings-microsoft-dynamics-365-erp-technical-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-2-to-4-years-180523910778</t>
         </is>
       </c>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -17187,7 +18447,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
     </row>
@@ -17235,7 +18495,11 @@
           <t>https://www.naukri.com/job-listings-microsoft-dynamics-365-finance-functional-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-6-to-8-years-190523904753</t>
         </is>
       </c>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -17281,7 +18545,11 @@
           <t>https://www.naukri.com/job-listings-sap-fi-s-4hana-accounting-deployment-lead-accenture-solutions-pvt-ltd-bangalore-bengaluru-6-to-8-years-160523908054</t>
         </is>
       </c>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -17327,7 +18595,11 @@
           <t>https://www.naukri.com/job-listings-finance-program-ops-associate-manager-finance-operations-accenture-solutions-pvt-ltd-bangalore-bengaluru-10-to-14-years-170523911567</t>
         </is>
       </c>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -17373,7 +18645,11 @@
           <t>https://www.naukri.com/job-listings-sap-quality-management-qm-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-8-to-10-years-170523911305</t>
         </is>
       </c>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -17419,7 +18695,11 @@
           <t>https://www.naukri.com/job-listings-ifs-solutions-functional-management-application-developer-accenture-hyderabad-secunderabad-4-to-6-years-200223905609</t>
         </is>
       </c>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -17465,7 +18745,11 @@
           <t>https://www.naukri.com/job-listings-microsoft-endpoint-configuration-manager-application-tech-support-accenture-bangalore-bengaluru-4-to-6-years-160223903955</t>
         </is>
       </c>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -17511,7 +18795,11 @@
           <t>https://www.naukri.com/job-listings-transaction-processing-associate-order-to-cash-processing-accenture-solutions-pvt-ltd-gurgaon-gurugram-1-to-3-years-040523908779</t>
         </is>
       </c>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -17557,7 +18845,11 @@
           <t>https://www.naukri.com/job-listings-apache-hadoop-application-developer-accenture-bangalore-bengaluru-4-to-6-years-200223904160</t>
         </is>
       </c>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -17603,7 +18895,11 @@
           <t>https://www.naukri.com/job-listings-net-full-stack-development-application-developer-accenture-solutions-pvt-ltd-bangalore-bengaluru-4-to-6-years-190523906801</t>
         </is>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -17649,7 +18945,11 @@
           <t>https://www.naukri.com/job-listings-configuration-database-ci-management-software-configuration-lead-accenture-bangalore-bengaluru-6-to-8-years-200223905590</t>
         </is>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -17695,7 +18995,11 @@
           <t>https://www.naukri.com/job-listings-sap-information-lifecycle-management-ilm-application-designer-accenture-solutions-pvt-ltd-bangalore-bengaluru-4-to-6-years-291122911196</t>
         </is>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -17741,7 +19045,11 @@
           <t>https://www.naukri.com/job-listings-net-full-stack-development-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-4-to-6-years-190523905476</t>
         </is>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -17789,7 +19097,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -17839,7 +19147,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -17887,7 +19195,11 @@
           <t>https://www.naukri.com/job-listings-machine-learning-ai-platform-engineer-accenture-solutions-pvt-ltd-bangalore-bengaluru-8-to-10-years-020623909704</t>
         </is>
       </c>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -17933,7 +19245,11 @@
           <t>https://www.naukri.com/job-listings-analystics-modeling-specialist-accenture-kolkata-mumbai-hyderabad-secunderabad-pune-chennai-bangalore-bengaluru-6-to-8-years-130223902315</t>
         </is>
       </c>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -17979,7 +19295,11 @@
           <t>https://www.naukri.com/job-listings-japanese-application-developer-accenture-bangalore-bengaluru-4-to-6-years-300123906540</t>
         </is>
       </c>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -18025,7 +19345,11 @@
           <t>https://www.naukri.com/job-listings-inside-sales-assoc-manager-intelligent-sales-and-customer-operations-accenture-solutions-pvt-ltd-gurgaon-gurugram-10-to-14-years-151222911809</t>
         </is>
       </c>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -18071,7 +19395,11 @@
           <t>https://www.naukri.com/job-listings-vistex-application-developer-accenture-bangalore-bengaluru-4-to-6-years-300123906542</t>
         </is>
       </c>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -18117,7 +19445,11 @@
           <t>https://www.naukri.com/job-listings-japanese-application-developer-accenture-bangalore-bengaluru-4-to-6-years-300123906540</t>
         </is>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -18163,7 +19495,11 @@
           <t>https://www.naukri.com/job-listings-inside-sales-assoc-manager-intelligent-sales-and-customer-operations-accenture-solutions-pvt-ltd-gurgaon-gurugram-10-to-14-years-151222911809</t>
         </is>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -18211,7 +19547,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
     </row>
@@ -18259,7 +19595,11 @@
           <t>https://www.naukri.com/job-listings-sap-master-data-governance-mdg-tool-application-lead-accenture-hyderabad-secunderabad-4-to-6-years-130223902307</t>
         </is>
       </c>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -18305,7 +19645,11 @@
           <t>https://www.naukri.com/job-listings-analytics-and-modeling-senior-manager-accenture-solutions-pvt-ltd-gurgaon-gurugram-16-to-25-years-030523908680</t>
         </is>
       </c>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -18351,7 +19695,11 @@
           <t>https://www.naukri.com/job-listings-security-information-and-event-management-siem-security-architect-accenture-bangalore-bengaluru-8-to-10-years-160223903642</t>
         </is>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -18399,7 +19747,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -18449,7 +19797,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -18497,7 +19845,11 @@
           <t>https://www.naukri.com/job-listings-snowflake-data-warehouse-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-4-to-6-years-190523907065</t>
         </is>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -18543,7 +19895,11 @@
           <t>https://www.naukri.com/job-listings-cn-strategy-mc-t-o-change-management-analyst-accenture-solutions-pvt-ltd-gurgaon-gurugram-2-to-5-years-230123907616</t>
         </is>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -18589,7 +19945,11 @@
           <t>https://www.naukri.com/job-listings-finance-program-ops-associate-procure-to-pay-processing-accenture-solutions-pvt-ltd-gurgaon-gurugram-1-to-3-years-080523905493</t>
         </is>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -18635,7 +19995,11 @@
           <t>https://www.naukri.com/job-listings-talent-strategist-specialist-accenture-solutions-pvt-ltd-bangalore-bengaluru-3-to-6-years-030623903859</t>
         </is>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -18681,7 +20045,11 @@
           <t>https://www.naukri.com/job-listings-sap-mm-materials-management-technology-consulting-practitioner-accenture-solutions-pvt-ltd-hyderabad-secunderabad-6-to-8-years-261222905974</t>
         </is>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -18727,7 +20095,11 @@
           <t>https://www.naukri.com/job-listings-machine-learning-ai-platform-engineer-accenture-solutions-pvt-ltd-bangalore-bengaluru-6-to-8-years-030623905529</t>
         </is>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -18775,7 +20147,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -18823,7 +20195,11 @@
           <t>https://www.naukri.com/job-listings-sourcing-cat-enablement-assoc-manager-procurement-accenture-solutions-pvt-ltd-noida-10-to-14-years-190523910855</t>
         </is>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>ANDHRA PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -18869,7 +20245,11 @@
           <t>https://www.naukri.com/job-listings-apple-macos-management-infrastructure-engineer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-2-to-4-years-291122907316</t>
         </is>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -18915,7 +20295,11 @@
           <t>https://www.naukri.com/job-listings-apache-spark-application-lead-accenture-solutions-pvt-ltd-gurgaon-gurugram-8-to-10-years-180523909693</t>
         </is>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -18961,7 +20345,11 @@
           <t>https://www.naukri.com/job-listings-health-admin-services-associate-healthcare-management-accenture-solutions-pvt-ltd-bangalore-bengaluru-1-to-3-years-270523905939</t>
         </is>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -19007,7 +20395,11 @@
           <t>https://www.naukri.com/job-listings-microsoft-dynamics-365-finance-functional-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-4-to-6-years-190523904772</t>
         </is>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -19053,7 +20445,11 @@
           <t>https://www.naukri.com/job-listings-finance-business-management-sr-analyst-order-to-cash-processing-accenture-solutions-pvt-ltd-gurgaon-gurugram-5-to-8-years-180523908305</t>
         </is>
       </c>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -19099,7 +20495,11 @@
           <t>https://www.naukri.com/job-listings-microsoft-dynamics-365-finance-functional-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-4-to-6-years-190523904772</t>
         </is>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -19145,7 +20545,11 @@
           <t>https://www.naukri.com/job-listings-sap-successfactors-integrations-technical-tech-delivery-subject-matter-accenture-solutions-pvt-ltd-bangalore-bengaluru-6-to-8-years-091222910390</t>
         </is>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -19191,7 +20595,11 @@
           <t>https://www.naukri.com/job-listings-data-center-networking-technologies-operations-data-centre-lead-accenture-bangalore-bengaluru-4-to-6-years-300123906717</t>
         </is>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -19237,7 +20645,11 @@
           <t>https://www.naukri.com/job-listings-hr-program-operations-associate-hr-operations-accenture-solutions-pvt-ltd-gurgaon-gurugram-1-to-3-years-190523905268</t>
         </is>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>UTTAR PRADESH</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -19283,7 +20695,11 @@
           <t>https://www.naukri.com/job-listings-analytics-senior-analyst-data-visualization-accenture-solutions-pvt-ltd-bangalore-bengaluru-5-to-8-years-020523908229</t>
         </is>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -19331,7 +20747,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamil Nadu </t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
     </row>
@@ -19379,7 +20795,11 @@
           <t>https://www.naukri.com/job-listings-microsoft-dynamics-365-operations-functional-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-4-to-6-years-190523905640</t>
         </is>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -19427,7 +20847,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamil Nadu </t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
     </row>
@@ -19477,7 +20897,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamil Nadu </t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
     </row>
@@ -19525,7 +20945,11 @@
           <t>https://www.naukri.com/job-listings-microsoft-dynamics-365-erp-technical-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-4-to-6-years-190523906774</t>
         </is>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -19571,7 +20995,11 @@
           <t>https://www.naukri.com/job-listings-servicenow-it-service-management-application-tech-support-practitioner-accenture-solutions-pvt-ltd-bangalore-bengaluru-6-to-8-years-270622911416</t>
         </is>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -19617,7 +21045,11 @@
           <t>https://www.naukri.com/job-listings-sap-vendor-invoice-management-application-developer-accenture-solutions-pvt-ltd-hyderabad-secunderabad-2-to-4-years-190523909126</t>
         </is>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -19665,7 +21097,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -19715,7 +21147,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -19765,7 +21197,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
     </row>
@@ -19815,7 +21247,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
     </row>
@@ -19863,7 +21295,11 @@
           <t>https://www.naukri.com/job-listings-exadata-administration-cloud-migration-implementation-delivery-accenture-bangalore-bengaluru-6-to-8-years-301222913706</t>
         </is>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>HARYANA</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -19909,7 +21345,11 @@
           <t>https://www.naukri.com/job-listings-qa-lead-sorice-solutions-kochi-cochin-kerala-7-to-12-years-240723002463</t>
         </is>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -19955,7 +21395,11 @@
           <t>https://www.naukri.com/job-listings-it-auditor-aarvi-encon-indore-madhya-pradesh-hyderabad-secunderabad-telangana-pune-maharashtra-7-to-10-years-120723006130</t>
         </is>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>MAHARASHTRA</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
